--- a/uploads/template.xlsx
+++ b/uploads/template.xlsx
@@ -14,27 +14,183 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="56">
   <si>
     <t>ชื่อ</t>
   </si>
   <si>
-    <t>null</t>
-  </si>
-  <si>
     <t>สกุล</t>
   </si>
   <si>
-    <t>User123</t>
-  </si>
-  <si>
     <t>พนง.</t>
+  </si>
+  <si>
+    <t>User1233</t>
+  </si>
+  <si>
+    <t>user name</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>ตำแหน่ง</t>
+  </si>
+  <si>
+    <t>รหัสบัตรประชาชน</t>
+  </si>
+  <si>
+    <t>เพศ</t>
+  </si>
+  <si>
+    <t>วันเดือนปีเกิด</t>
+  </si>
+  <si>
+    <t>สัญชาติ</t>
+  </si>
+  <si>
+    <t>บ้านเลขที่</t>
+  </si>
+  <si>
+    <t>หมู่</t>
+  </si>
+  <si>
+    <t>ถนน</t>
+  </si>
+  <si>
+    <t>อำเภอ/เขต</t>
+  </si>
+  <si>
+    <t>จังหวัด</t>
+  </si>
+  <si>
+    <t>เบอร์โทรศัพท์</t>
+  </si>
+  <si>
+    <t>รหัสไปรษณีย์</t>
+  </si>
+  <si>
+    <t>คณะ/หน่วยงานที่สังกัด</t>
+  </si>
+  <si>
+    <t>ภาควิชา</t>
+  </si>
+  <si>
+    <t>กลุ่มสาขาวิชาที่สอน</t>
+  </si>
+  <si>
+    <t>ประเภทบุคลการ</t>
+  </si>
+  <si>
+    <t>ประเภทบุคลากรย่อย</t>
+  </si>
+  <si>
+    <t>ตำแหน่งทางวิชาการ/ชำนาญการ</t>
+  </si>
+  <si>
+    <t>ตำแหน่งทางบริหาร</t>
+  </si>
+  <si>
+    <t>ชื่อตำแหน่งในสายงาน</t>
+  </si>
+  <si>
+    <t>ระดับตำแหน่งข้าราชการ</t>
+  </si>
+  <si>
+    <t>วัดเดือนปีที่เข้าทำงาน(พ.ศ.)</t>
+  </si>
+  <si>
+    <t>ระยะเวลาการจ้างงาน</t>
+  </si>
+  <si>
+    <t>เงินจ้างงาน</t>
+  </si>
+  <si>
+    <t>ระดับการศึกษาที่จบสูงสุด</t>
+  </si>
+  <si>
+    <t>ชื่อหลักสูตรที่จบการศึกษาสูงสุด</t>
+  </si>
+  <si>
+    <t>กลุ่มสาขาวิชาที่จบการศึกษาสูงสุด</t>
+  </si>
+  <si>
+    <t>สาขาวิชาที่จบการศึกษาสูงสุด</t>
+  </si>
+  <si>
+    <t>ชื่อสถาบันที่จบการศึกษาสูงสุด</t>
+  </si>
+  <si>
+    <t>ประเทศที่จบการศึกษาสูงสุด</t>
+  </si>
+  <si>
+    <t>ผู้บังคับบัญชา</t>
+  </si>
+  <si>
+    <t>สถานะ</t>
+  </si>
+  <si>
+    <t>ชาย</t>
+  </si>
+  <si>
+    <t>ไทย</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>พระสมุทรเจย์ดี</t>
+  </si>
+  <si>
+    <t>สมุทรปราการ</t>
+  </si>
+  <si>
+    <t>ทดสอบหน่อยงาย</t>
+  </si>
+  <si>
+    <t>ทดสอบภาควิชา</t>
+  </si>
+  <si>
+    <t>ทดสอบกลุ่ม</t>
+  </si>
+  <si>
+    <t>ทดสอบประเภท</t>
+  </si>
+  <si>
+    <t>ทดสอบประเภทย่อย</t>
+  </si>
+  <si>
+    <t>ทดสอบตำแหน่ง</t>
+  </si>
+  <si>
+    <t>ทดสอบ บริหาร</t>
+  </si>
+  <si>
+    <t>ทดสอบชื่อ ตำแหน่ง</t>
+  </si>
+  <si>
+    <t>ทดสอบ ระดับราชการ</t>
+  </si>
+  <si>
+    <t>ปตรี</t>
+  </si>
+  <si>
+    <t>วทบ</t>
+  </si>
+  <si>
+    <t>คณะ</t>
+  </si>
+  <si>
+    <t>สาขา</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="191" formatCode="[$-1070000]d/mm/yyyy;@"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -44,12 +200,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -64,8 +226,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="191" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -370,47 +536,288 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:AL2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.25" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.25" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="20" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="25" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="26.625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="22.125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>123456</v>
+      </c>
+      <c r="E2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
         <v>3</v>
       </c>
-      <c r="E1">
-        <v>123456</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="H2">
         <v>4</v>
       </c>
-      <c r="G1">
-        <v>2</v>
-      </c>
-      <c r="H1">
-        <v>3</v>
-      </c>
-      <c r="I1">
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2">
+        <v>110254245687</v>
+      </c>
+      <c r="K2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="3">
+        <v>34674</v>
+      </c>
+      <c r="M2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2">
+        <v>452</v>
+      </c>
+      <c r="O2">
+        <v>10</v>
+      </c>
+      <c r="P2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R2" t="s">
+        <v>42</v>
+      </c>
+      <c r="S2">
+        <v>954213542</v>
+      </c>
+      <c r="T2">
+        <v>10290</v>
+      </c>
+      <c r="U2" t="s">
+        <v>43</v>
+      </c>
+      <c r="V2" t="s">
+        <v>44</v>
+      </c>
+      <c r="W2" t="s">
+        <v>45</v>
+      </c>
+      <c r="X2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD2" s="4">
+        <v>241361</v>
+      </c>
+      <c r="AE2">
         <v>4</v>
       </c>
-      <c r="J1">
-        <v>0</v>
+      <c r="AF2">
+        <v>3000</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/uploads/template.xlsx
+++ b/uploads/template.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ข้อมูล" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="120">
   <si>
     <t>ชื่อ</t>
   </si>
@@ -182,6 +183,198 @@
   </si>
   <si>
     <t>สาขา</t>
+  </si>
+  <si>
+    <t>เขต</t>
+  </si>
+  <si>
+    <t>ระดับ</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>2020-05-62</t>
+  </si>
+  <si>
+    <t>วิศวกรรมไฟฟ้า</t>
+  </si>
+  <si>
+    <t>วิศวกรรมอิเล็คทรอนิคส์และโทรคมนาคม</t>
+  </si>
+  <si>
+    <t>วิศวกรรมโยธา</t>
+  </si>
+  <si>
+    <t>วิศวกรรมสำรวจ</t>
+  </si>
+  <si>
+    <t>วิศวกรรมเครื่องกล</t>
+  </si>
+  <si>
+    <t>วิศวกรรมอุตสาหการ</t>
+  </si>
+  <si>
+    <t>วิศวกรรมเคมี</t>
+  </si>
+  <si>
+    <t>วิศวกรรมการผลิตความแม่นยำสูง</t>
+  </si>
+  <si>
+    <t>วิศวกรรมซ่อมบำรุงอากาศยาน</t>
+  </si>
+  <si>
+    <t>วิศวกรรมอัตโนมัติและหุ่นยนต์</t>
+  </si>
+  <si>
+    <t>เทคโนโลยีอุตสาหการ</t>
+  </si>
+  <si>
+    <t>เทคโนโลยีวิศวกรรมคอมพิวเตอร์</t>
+  </si>
+  <si>
+    <t>อาหารและโภชนาการ</t>
+  </si>
+  <si>
+    <t>ธุรกิจอาหาร</t>
+  </si>
+  <si>
+    <t>เทคโนโลยีเสื้อผ้าและแพตเทิร์น</t>
+  </si>
+  <si>
+    <t>การออกแบบแฟชั่น</t>
+  </si>
+  <si>
+    <t>วิทยาศาสตร์และเทคโนโลยีการอาหาร</t>
+  </si>
+  <si>
+    <t>การพัฒนาผลิตภัณฑ์อาหาร</t>
+  </si>
+  <si>
+    <t>คหกรรมศาสตร์ศึกษา</t>
+  </si>
+  <si>
+    <t>ภาษาอังกฤษเพื่อการสื่อสารสากล</t>
+  </si>
+  <si>
+    <t>ภาษาจีนเพื่อการสื่อสาร</t>
+  </si>
+  <si>
+    <t>ภาษาญี่ปุ่น</t>
+  </si>
+  <si>
+    <t>การท่องเที่ยว</t>
+  </si>
+  <si>
+    <t>การโรงแรม</t>
+  </si>
+  <si>
+    <t>การพัฒนาผลิตภัณฑ์ภูมิปัญญาไทย</t>
+  </si>
+  <si>
+    <t>นวัตกรรมสิ่งทอ</t>
+  </si>
+  <si>
+    <t>ออกแบบสิ่งทอและแฟชั่น</t>
+  </si>
+  <si>
+    <t>เทคโนโลยีสิ่งทอ</t>
+  </si>
+  <si>
+    <t>การบัญชี</t>
+  </si>
+  <si>
+    <t>การเงิน</t>
+  </si>
+  <si>
+    <t>การประเมินราคาทรัพย์สิน</t>
+  </si>
+  <si>
+    <t>การตลาด</t>
+  </si>
+  <si>
+    <t>การจัดการ</t>
+  </si>
+  <si>
+    <t>การสื่อสารธุรกิจระหว่างประเทศ</t>
+  </si>
+  <si>
+    <t>ระบบสารสนเทศ</t>
+  </si>
+  <si>
+    <t>เทคโนโลยีสารสนเทศและธุรกิจดิจิทัจ</t>
+  </si>
+  <si>
+    <t>เคมี</t>
+  </si>
+  <si>
+    <t>เทคโนโลยีและการจัดการความปลอดภัยของอาหาร</t>
+  </si>
+  <si>
+    <t>วิทยาการคอมพิวเตอร์</t>
+  </si>
+  <si>
+    <t>เทคโนโลยีสารสนเทศ</t>
+  </si>
+  <si>
+    <t>วิทยาศาสตร์เพื่อสุขภาพและความงาม</t>
+  </si>
+  <si>
+    <t>ออกแบบผลิตภัณฑ์อุตสาหกรรม</t>
+  </si>
+  <si>
+    <t>เทคโนโลยีการถ่ายภาพและภาพยนตร์</t>
+  </si>
+  <si>
+    <t>เทคโนโลยีการพิมพ์</t>
+  </si>
+  <si>
+    <t>เทคโนโลยีเครื่องเรือนและการออกแบบ</t>
+  </si>
+  <si>
+    <t>เทคโนโลยีการโทรทัศน์และวิทยุกระจายเสียง</t>
+  </si>
+  <si>
+    <t>วิศวกรรมศาสตร์</t>
+  </si>
+  <si>
+    <t>ครุศาสตร์อุตสาหกรรม</t>
+  </si>
+  <si>
+    <t>เทคโนโลยีคหกรรมศาสตร์</t>
+  </si>
+  <si>
+    <t>ศิลปศาสตร์</t>
+  </si>
+  <si>
+    <t>อุตสาหกรรมสิ่งทอ</t>
+  </si>
+  <si>
+    <t>บริหารธุรกิจ</t>
+  </si>
+  <si>
+    <t>วิทยาศาสตร์และเทคโนโลยี</t>
+  </si>
+  <si>
+    <t>ผู้ถูกประเมิน</t>
+  </si>
+  <si>
+    <t>ผู้ประเมิน</t>
+  </si>
+  <si>
+    <t>Prasong Ekaluck</t>
+  </si>
+  <si>
+    <t>id สถานะ</t>
+  </si>
+  <si>
+    <t>id ผู้บังคับบัญชา</t>
+  </si>
+  <si>
+    <t>id คณะ</t>
+  </si>
+  <si>
+    <t>id สาขา</t>
   </si>
 </sst>
 </file>
@@ -189,9 +382,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="191" formatCode="[$-1070000]d/mm/yyyy;@"/>
+    <numFmt numFmtId="187" formatCode="yyyy\-m\-d"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,8 +392,39 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="222"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="222"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="222"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -213,8 +437,28 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -222,19 +466,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="191" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="4" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="4" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -536,10 +807,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL2"/>
+  <dimension ref="A1:AN2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -560,31 +831,32 @@
     <col min="14" max="14" width="8.25" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="3.25" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="4.25" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="18.875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="20" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="25" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="26.625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="23.125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="23.875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="22.125" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="18.875" customWidth="1"/>
+    <col min="32" max="32" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="20" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="25" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="26.625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="22.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:40" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -600,16 +872,16 @@
       <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="4" t="s">
         <v>37</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -637,70 +909,76 @@
         <v>14</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -723,7 +1001,7 @@
         <v>3</v>
       </c>
       <c r="H2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -734,8 +1012,8 @@
       <c r="K2" t="s">
         <v>38</v>
       </c>
-      <c r="L2" s="3">
-        <v>34674</v>
+      <c r="L2" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="M2" t="s">
         <v>39</v>
@@ -753,58 +1031,58 @@
         <v>41</v>
       </c>
       <c r="R2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S2" t="s">
         <v>42</v>
       </c>
-      <c r="S2">
+      <c r="T2" s="5">
         <v>954213542</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>10290</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>43</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>44</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>45</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>46</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>47</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>48</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>49</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>50</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>51</v>
       </c>
-      <c r="AD2" s="4">
-        <v>241361</v>
-      </c>
-      <c r="AE2">
+      <c r="AE2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF2" s="3">
+        <v>43988</v>
+      </c>
+      <c r="AG2">
         <v>4</v>
       </c>
-      <c r="AF2">
+      <c r="AH2">
         <v>3000</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AI2" t="s">
         <v>52</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>53</v>
       </c>
       <c r="AJ2" t="s">
         <v>53</v>
@@ -813,7 +1091,502 @@
         <v>53</v>
       </c>
       <c r="AL2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN2" t="s">
         <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:H49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="7"/>
+      <c r="E1" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1" s="4"/>
+      <c r="G1" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="H1" s="6"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="B30" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>31</v>
+      </c>
+      <c r="B31" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>32</v>
+      </c>
+      <c r="B32" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>33</v>
+      </c>
+      <c r="B33" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>34</v>
+      </c>
+      <c r="B34" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>35</v>
+      </c>
+      <c r="B35" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>36</v>
+      </c>
+      <c r="B36" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>37</v>
+      </c>
+      <c r="B37" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>38</v>
+      </c>
+      <c r="B38" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>39</v>
+      </c>
+      <c r="B39" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>40</v>
+      </c>
+      <c r="B40" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>41</v>
+      </c>
+      <c r="B41" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>42</v>
+      </c>
+      <c r="B42" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>43</v>
+      </c>
+      <c r="B43" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>44</v>
+      </c>
+      <c r="B44" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>45</v>
+      </c>
+      <c r="B45" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>46</v>
+      </c>
+      <c r="B46" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>47</v>
+      </c>
+      <c r="B47" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>48</v>
+      </c>
+      <c r="B48" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>49</v>
+      </c>
+      <c r="B49" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
